--- a/Data/Final_Output/Stats_Goalkeeping_Final.xlsx
+++ b/Data/Final_Output/Stats_Goalkeeping_Final.xlsx
@@ -39,9 +39,6 @@
     <t>Detailed Stats Category</t>
   </si>
   <si>
-    <t>redbull njr</t>
-  </si>
-  <si>
     <t>Alexander Hleb</t>
   </si>
   <si>
@@ -63,15 +60,15 @@
     <t>assists</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
@@ -99,34 +96,34 @@
     <t>Hleb</t>
   </si>
   <si>
-    <t>B. Charlton</t>
-  </si>
-  <si>
-    <t>N. Ono</t>
-  </si>
-  <si>
-    <t>A. Banks</t>
-  </si>
-  <si>
-    <t>O. Gillet</t>
-  </si>
-  <si>
-    <t>C. Bernard</t>
-  </si>
-  <si>
-    <t>s. karl</t>
-  </si>
-  <si>
-    <t>I. Lanzini</t>
-  </si>
-  <si>
-    <t>P. Hansen</t>
-  </si>
-  <si>
-    <t>S. Ribeiro</t>
-  </si>
-  <si>
-    <t>M. Lund</t>
+    <t>Z. Shen</t>
+  </si>
+  <si>
+    <t>A. Ji</t>
+  </si>
+  <si>
+    <t>E. Chang</t>
+  </si>
+  <si>
+    <t>T. Morel</t>
+  </si>
+  <si>
+    <t>K. Kowalczyk</t>
+  </si>
+  <si>
+    <t>E. Monteiro</t>
+  </si>
+  <si>
+    <t>C. Hassan</t>
+  </si>
+  <si>
+    <t>O. John</t>
+  </si>
+  <si>
+    <t>Y. Clerc</t>
+  </si>
+  <si>
+    <t>J. Al Shahrani</t>
   </si>
   <si>
     <t>Stat</t>
@@ -144,7 +141,7 @@
     <t>Goals Conceded</t>
   </si>
   <si>
-    <t>Save Success Rate (%)</t>
+    <t>Save Success Rate(%)</t>
   </si>
   <si>
     <t>Punch Saves</t>
@@ -159,10 +156,16 @@
     <t>Penalty Goals Conceded</t>
   </si>
   <si>
-    <t>Shoot-out Saves</t>
-  </si>
-  <si>
-    <t>Shoot-out Goals Conceded</t>
+    <t>Shootout Saves</t>
+  </si>
+  <si>
+    <t>Shootout Goals Conceded</t>
+  </si>
+  <si>
+    <t>Punch Clearance</t>
+  </si>
+  <si>
+    <t>Cross Claim</t>
   </si>
   <si>
     <t>Normal</t>
@@ -172,9 +175,6 @@
   </si>
   <si>
     <t>Header</t>
-  </si>
-  <si>
-    <t>Save Success Rate(%)</t>
   </si>
   <si>
     <t>Power</t>
@@ -562,16 +562,13 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -579,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -595,7 +592,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -613,27 +610,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -647,33 +644,33 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -681,16 +678,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -698,13 +695,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -715,10 +712,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>7.7</v>
@@ -727,18 +724,18 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -749,13 +746,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -766,13 +763,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -783,13 +780,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -800,13 +797,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -822,7 +819,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -830,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -838,7 +835,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -846,7 +843,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -854,7 +851,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -862,7 +859,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -878,7 +875,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -894,7 +891,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -902,7 +899,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -910,7 +907,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -918,7 +915,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -926,7 +923,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -934,7 +931,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -942,7 +939,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -950,15 +947,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -966,7 +963,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -982,9 +979,17 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
